--- a/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-30,89%</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>226,65%</t>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-13,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 6,14</t>
+          <t>-11,78; 27,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 10,23</t>
+          <t>-29,76; 13,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 17,87</t>
+          <t>-21,93; 22,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 300,73</t>
+          <t>-29,18; 11,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-74,85; 299,0</t>
+          <t>-13,64; 50,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,12; —</t>
+          <t>-36,44; 20,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 45,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-37,22; 17,34</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>27,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>7,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,51</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,34%</t>
+          <t>44,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-54,13%</t>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-5,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,11; 13,4</t>
+          <t>6,05; 54,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 7,53</t>
+          <t>-9,81; 24,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 5,16</t>
+          <t>-21,7; 12,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-85,89; 815,34</t>
+          <t>-16,57; 25,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-90,23; 314,01</t>
+          <t>6,5; 141,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-93,82; 119,98</t>
+          <t>-10,95; 37,53</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,18; 16,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-20,08; 41,52</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,9</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,93</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-50,48%</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-51,7%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,44%</t>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-1,4%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-30,04; -0,53</t>
+          <t>-7,4; 18,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,88; -0,5</t>
+          <t>-0,08; 21,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 9,83</t>
+          <t>-11,03; 11,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-78,83; 0,31</t>
+          <t>-12,49; 13,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,32; 4,36</t>
+          <t>-8,4; 27,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,67; 67,49</t>
+          <t>-0,01; 30,03</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,24; 15,05</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 17,26</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,12</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>9,95</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,92%</t>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12,28%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 17,9</t>
+          <t>-4,68; 18,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 12,93</t>
+          <t>-0,13; 21,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 13,08</t>
+          <t>-0,98; 20,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 261,53</t>
+          <t>-12,32; 6,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 99,39</t>
+          <t>-5,32; 25,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 98,61</t>
+          <t>-0,12; 29,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 28,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,36; 7,18</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>8,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>-8,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-8,27%</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-9,66%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 8,98</t>
+          <t>-9,5; 23,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 9,31</t>
+          <t>-15,48; 9,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 13,78</t>
+          <t>-22,14; 4,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-52,44; 65,57</t>
+          <t>-5,4; 18,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 69,39</t>
+          <t>-11,74; 37,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-43,71; 107,23</t>
+          <t>-16,63; 10,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-23,98; 4,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 24,46</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-7,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,51</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>-7,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>84,33%</t>
+          <t>-7,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 20,35</t>
+          <t>-26,95; 14,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 18,17</t>
+          <t>-20,2; 3,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 51,83</t>
+          <t>-18,38; 19,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 233,37</t>
+          <t>-12,15; 21,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 301,93</t>
+          <t>-31,08; 21,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,1; 569,1</t>
+          <t>-20,65; 3,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-20,83; 27,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 30,57</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,79%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,74</t>
+          <t>2,26; 17,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 3,0</t>
+          <t>-2,08; 10,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 11,72</t>
+          <t>-6,42; 6,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-33,25; 38,86</t>
+          <t>-6,06; 6,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 22,64</t>
+          <t>3,02; 26,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 81,78</t>
+          <t>-2,32; 13,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 8,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 8,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_DUKE_AC_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-10,21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-13,59%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-13,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.819439439536191</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.92718866154145</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.511575392565101</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.204468014790002</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.1121815390589319</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.09300885849636725</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.02475470363933827</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1261403890432603</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,78; 27,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-29,76; 13,58</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,93; 22,44</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-29,18; 11,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 50,89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; 20,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-29,86; 45,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-37,22; 17,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-10.82095934438612</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-27.15600732808397</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-22.03836457970959</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-28.8274571067004</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.1249652480399616</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3179370360401941</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.2894714668783923</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3622001840689198</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>30.08609354453777</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.36052877365854</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.3762515344747</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.76088502912981</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.5766232223298466</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.2862404736883011</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.511999821590492</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.2160801837766342</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>27,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>4,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>44,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>9,26%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-5,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 54,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 24,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-21,7; 12,61</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,57; 25,2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 141,26</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 37,53</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-24,18; 16,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-20,08; 41,52</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>30.78407379565277</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.519863522555649</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.798793086189978</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.532762131977797</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.5302064127413738</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1223354620958695</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.04564591386008722</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.05989541234075424</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,36</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>12,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.23899700740475</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.829349559026891</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-19.75887326153287</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-16.06380421141759</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.1131627916067316</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1021186563663276</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.219115586054856</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1942203765639302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 18,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 21,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,03; 11,43</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-12,49; 13,07</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-8,4; 27,82</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,01; 30,03</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,24; 15,05</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 17,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>56.30927474391692</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>26.07313282410596</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>14.01628758745879</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>25.76745675755584</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.531111572953537</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.4271689426352885</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.189698767804721</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4250708269897819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,76</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,03</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,95</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>12,28%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-3,91%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.16245231442328</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.893073213921678</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.624743842865373</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-1.821310938846044</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.0262101388708397</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.1179906342919717</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.01879727877547351</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02159316520402215</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 18,74</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 21,36</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 20,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-12,32; 6,32</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 25,59</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 29,08</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 28,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-13,36; 7,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.559210202427534</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.2315470948069965</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.38119800466002</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.90567001315456</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1053826994210462</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.003484495491233911</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1334025225861518</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.142930376495273</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.31505775576328</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.29422015035512</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.978205253814334</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.77259797058918</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2149893013461242</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.287057261866245</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1273116959054185</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1543285715420877</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,7</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>11,67%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-9,66%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 23,64</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 9,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-22,14; 4,11</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 18,19</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-11,74; 37,07</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-16,63; 10,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-23,98; 4,75</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,91; 24,46</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.604718607364245</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>10.66588850100982</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>11.4782352798655</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.010412159316812</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06966577026036512</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1299654280314405</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1442719763769252</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.04435806740852265</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-5,8</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-7,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,36</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-7,43%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-7,4%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.126270692641299</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.07404159196244134</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1060944912197091</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.91990714001</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.07014582617238593</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.001712934937698103</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.0004773211393361513</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1368715655858605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-26,95; 14,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-20,2; 3,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; 19,13</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 21,78</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-31,08; 21,75</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-20,65; 3,43</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-20,83; 27,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; 30,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.26716997290395</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>22.46532981162151</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>23.18719446704056</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.390259891993666</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2499694962978331</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.310720872358847</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3319829358232019</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.07539410721789666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>3,73</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,44%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,53%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.595871446931413</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.180936686334866</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-9.641137367166742</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.765055536002517</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.1200323245825055</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.01330426364653116</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.1060559574993604</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.06852111192274002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 17,45</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,08; 10,33</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,42; 6,73</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,06; 6,82</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 26,3</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 13,07</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 8,78</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 8,81</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.895871796711662</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-15.77857418010738</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-23.25112024561045</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-6.088439855928437</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.1151579542491356</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.1683219714770072</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.2517749328534189</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.06936426741468173</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>23.76103876145459</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>9.412616630033121</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.814781012567099</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>17.68903264013061</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.3881465631551102</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.114364677622594</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.02936890927478928</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.2333342455614268</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-7.868057091862058</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-6.546585076516975</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-1.420320181975765</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>5.191108546573508</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.09900881711828252</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.06761335288666609</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.01782563485231835</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.06149240512031212</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-28.37315639940232</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-18.17354513719777</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-23.27415261822734</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-10.81274802551348</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.3254627746851547</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1888171160352248</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.2750757685317975</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1125360816404929</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.75536695898601</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>3.978575744187197</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>16.96513750287343</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>21.02950801079615</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1833942790098542</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.04153895806699752</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.2442670319004994</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.2891289798879664</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>9.377230418087223</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>4.826827175866921</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1235526058611103</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.4077010698792183</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1278144338954837</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.05832253339940659</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.001536293048984229</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.004986232163041388</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2.458836086823019</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.760158500704147</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.72385132935928</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-5.967626033193716</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.03137465666146115</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.008547639127896094</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.08155863384576659</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.06974542872119117</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>17.74603075426508</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>11.51607656161556</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6.723526067405608</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>6.978544421658921</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2672520552620044</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1458611732243606</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.08870121881832682</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.09116171369465571</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
